--- a/CuaHangTrangSuc/productsInfo/CategoriesData.xlsx
+++ b/CuaHangTrangSuc/productsInfo/CategoriesData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecon\Documents\GitHub\CuaHangTrangSuc-Nhom4-\CuaHangTrangSuc\productsInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819D17A0-9509-4425-9D3D-629E9426378D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76D910B6-7B52-4AF5-8CDB-F6664E52629E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id-category</t>
   </si>
@@ -55,12 +54,27 @@
   </si>
   <si>
     <t>Dây chuyền</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486D2AAE-FF27-4B32-8555-9BD1AC80F71A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,40 +442,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
